--- a/data/notes.xlsx
+++ b/data/notes.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2345,12 +2345,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>@tingley_cryptic_2013</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>sR</t>
+          <t>@jarzyna_near_2017</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2358,12 +2353,15 @@
           <t>Local</t>
         </is>
       </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
       <c r="G45">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1911-2009</t>
+          <t>1969-2010</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2373,24 +2371,19 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Decrease</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Spatial grain: 10 counting points per site, with radius of observation assumed to 200m = 10x(pi x 0.2^2). "Modern species richness was significantly less than historical richness (i.e., 95% credible intervals of richness differences nonoverlapping with 0) at 21 sites (27%), while only seven sites (9%) gained a significant number of species. More generally, using mean posterior estimates of richness change, significantly more sites lost species than gained species (57% vs. 43%; χ2 test, P = 0.007)."</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Tingley and Beissinger 2013</t>
+          <t>Jarzyna and Jetz 2017</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>@la_sorte_disparities_2009</t>
+          <t>@tingley_cryptic_2013</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2403,15 +2396,12 @@
           <t>Local</t>
         </is>
       </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
       <c r="G46">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1975-2001</t>
+          <t>1911-2009</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2421,24 +2411,24 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>North American BBS, "our findings indicate a general trend of increasing species richness"</t>
+          <t>Spatial grain: 10 counting points per site, with radius of observation assumed to 200m = 10x(pi x 0.2^2). "Modern species richness was significantly less than historical richness (i.e., 95% credible intervals of richness differences nonoverlapping with 0) at 21 sites (27%), while only seven sites (9%) gained a significant number of species. More generally, using mean posterior estimates of richness change, significantly more sites lost species than gained species (57% vs. 43%; χ2 test, P = 0.007)."</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>La Sorte et al. 2009</t>
+          <t>Tingley and Beissinger 2013</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>@la_sorte_geographical_2006</t>
+          <t>@la_sorte_disparities_2009</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2455,16 +2445,16 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1968-2003</t>
+          <t>1975-2001</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>USA, Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2474,19 +2464,19 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>North American BBS, "In general, the results indicate that, during the time of the survey, more species expanded their geographical ranges within the study area"</t>
+          <t>North American BBS, "our findings indicate a general trend of increasing species richness"</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>La Sorte 2006</t>
+          <t>La Sorte et al. 2009</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>@ma_use_2012</t>
+          <t>@la_sorte_geographical_2006</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2500,19 +2490,19 @@
         </is>
       </c>
       <c r="E48">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1980-2005</t>
+          <t>1968-2003</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>USA, Canada</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2522,19 +2512,19 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>New York State Breeding Bird Atlas</t>
+          <t>North American BBS, "In general, the results indicate that, during the time of the survey, more species expanded their geographical ranges within the study area"</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Ma et al. 2012</t>
+          <t>La Sorte 2006</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>@dornelas_assemblage_2014</t>
+          <t>@ma_use_2012</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2547,32 +2537,35 @@
           <t>Local</t>
         </is>
       </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
       <c r="G49">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1960-2000</t>
+          <t>1980-2005</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>For species richness, Fig. S5 shows the slope for birds. For the temporal beta-diversity, trends only for birds is not given so we took the global trend.</t>
+          <t>New York State Breeding Bird Atlas</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Dornelas et al. 2014</t>
+          <t>Ma et al. 2012</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2577,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2607,12 +2600,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Index used Jaccard similarity index. In this review, temporal beta-diversity is assessed as dissimilarity.</t>
+          <t>For species richness, Fig. S5 shows the slope for birds. For the temporal beta-diversity, trends only for birds is not given so we took the global trend.</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -2624,12 +2617,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>@garcia-navas_temporal_2020</t>
+          <t>@dornelas_assemblage_2014</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>sBetaDiv</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2637,47 +2630,44 @@
           <t>Local</t>
         </is>
       </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
       <c r="G51">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1999-2018</t>
+          <t>1960-2000</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>World</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Sorensen score</t>
+          <t>Index used Jaccard similarity index. In this review, temporal beta-diversity is assessed as dissimilarity.</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>García-Navas et al. 2020</t>
+          <t>Dornelas et al. 2014</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>@blowes_geography_2019</t>
+          <t>@garcia-navas_temporal_2020</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>sBetaDiv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2689,31 +2679,31 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1980-2019</t>
+          <t>1999-2018</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Polar realm</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Temporal extent is the median time serie. Tropical realm is represented only by 5 trends so we decided to not take it into account.</t>
+          <t>Sorensen score</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Blowes et al. 2019</t>
+          <t>García-Navas et al. 2020</t>
         </is>
       </c>
     </row>
@@ -2746,12 +2736,17 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Temperate realm</t>
+          <t>Polar realm</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
           <t>Stable</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Temporal extent is the median time serie. Tropical realm is represented only by 5 trends so we decided to not take it into account.</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -2768,7 +2763,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2789,12 +2784,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Polar realm</t>
+          <t>Temperate realm</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -2832,7 +2827,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Temperate realm</t>
+          <t>Polar realm</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2849,48 +2844,43 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>@mcgill_fifteen_2015</t>
+          <t>@blowes_geography_2019</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1985-2005</t>
+          <t>1980-2019</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>USA, Canada</t>
+          <t>Temperate realm</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Stable</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>North American BBS, spatial grain of 5x5°</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>McGill et al. 2015</t>
+          <t>Blowes et al. 2019</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2897,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="E57">
@@ -2931,9 +2921,153 @@
           <t>Stable</t>
         </is>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>North American BBS, spatial grain of 5x5°</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>McGill et al. 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>@mcgill_fifteen_2015</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>sR</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>20</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>1985-2005</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>USA, Canada</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>McGill et al. 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>@petchey_low_2007</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>sR</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="E59">
+        <v>20</v>
+      </c>
+      <c r="G59">
+        <v>24</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>1968-1991</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Summer (breeding) distribution of the British avifauna, 2298 grid cells of 10*10 Km. "Species richness [...] from [...] (mean ± 1 SD = 80·6 ± 13·1) in Atlas 1 and from [...] (80·0 ± 15·2) in Atlas 2. "</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Petchey et al. 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>@petchey_low_2007</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>fDiv</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="E60">
+        <v>20</v>
+      </c>
+      <c r="G60">
+        <v>24</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>1968-1991</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>"FD ranged from [...](mean ± 1 SD = 0·58 ± 0·08) in Atlas 1 and from [...] (mean ± 1 SD = 0·59 ± 0·09) in Atlas 2"</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Petchey et al. 2007</t>
         </is>
       </c>
     </row>

--- a/data/notes.xlsx
+++ b/data/notes.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,7 +463,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Barnagaud et al. 2017</t>
+          <t>Barnagaud et al., 2017</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Barnagaud et al. 2017</t>
+          <t>Barnagaud et al., 2017</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Barnagaud et al. 2017</t>
+          <t>Barnagaud et al., 2017</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Barnagaud et al. 2017</t>
+          <t>Barnagaud et al., 2017</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Chase et al. 2019</t>
+          <t>Chase et al., 2019</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Chase et al. 2019</t>
+          <t>Chase et al., 2019</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Davey et al. 2012</t>
+          <t>Davey et al., 2012</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Davey et al. 2012</t>
+          <t>Davey et al., 2012</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Davey et al. 2012</t>
+          <t>Davey et al., 2012</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2018</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2018</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>National</t>
         </is>
       </c>
       <c r="G13">
@@ -932,22 +932,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Decrease</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Data from Szabo et al. 2012</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2018</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
@@ -959,12 +954,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>fDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="G14">
@@ -977,17 +972,22 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>World</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Data from Szabo et al., 2012</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2018</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="G15">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2018</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="G16">
@@ -1057,22 +1057,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Stable</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Data from Szabo et al. 2012</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2018</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
@@ -1084,12 +1079,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>fDiv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>National</t>
         </is>
       </c>
       <c r="G17">
@@ -1112,7 +1107,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2018</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
@@ -1124,12 +1119,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>fDiv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="G18">
@@ -1142,17 +1137,22 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>World</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Data from Szabo et al., 2012</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2018</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="G19">
@@ -1182,52 +1182,47 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Stable</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Data from Szabo et al. 2012</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2018</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>@pilotto_meta-analysis_2020</t>
+          <t>@jarzyna_taxonomic_2018</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Div</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="G20">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1980-2016</t>
+          <t>1969-2013</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1235,44 +1230,39 @@
           <t>Increase</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Metric = Simpson</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Pilotto et al. 2020</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>@pilotto_meta-analysis_2020</t>
+          <t>@jarzyna_taxonomic_2018</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>National</t>
         </is>
       </c>
       <c r="G21">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1980-2016</t>
+          <t>1969-2013</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1282,14 +1272,14 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Pilotto et al. 2020</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>@pilotto_meta-analysis_2020</t>
+          <t>@jarzyna_taxonomic_2018</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1299,20 +1289,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="G22">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1980-2016</t>
+          <t>1969-2013</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>World</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1320,21 +1310,26 @@
           <t>Stable</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Data from Szabo et al., 2012</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Pilotto et al. 2020</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>@ram_what_2017</t>
+          <t>@pilotto_meta-analysis_2020</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>Div</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1342,20 +1337,17 @@
           <t>Local</t>
         </is>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
       <c r="G23">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1998-2015</t>
+          <t>1980-2016</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1365,24 +1357,24 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Swedish BBS, "The number of observations for each sampling route is the sum of observed pair equivalents of birds at the counting points (5 min counting period at each point) and while moving between counting points". SR for forest species meaned over roads, spatial grain = 8* .4 with road of 8 Km and census radius "no limitations" so assumed 200m.</t>
+          <t>Metric = Simpson</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Ram et al. 2017</t>
+          <t>Pilotto et al., 2020</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>@reif_changes_2013</t>
+          <t>@pilotto_meta-analysis_2020</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1390,47 +1382,39 @@
           <t>Local</t>
         </is>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
       <c r="G24">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1982-2004</t>
+          <t>1980-2016</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Czech Rep.</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Stable</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Breeding Bird Monitoring Programme. Jaccard similarity index (pairwise comparisions between transects), first increase then decrease. "A census transect consists of 20 points, which are visited twice per breeding season to sample early and late breeders. Observers register all birds seen or heard for 5 min at each census point"</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Reif et al. 2013</t>
+          <t>Pilotto et al., 2020</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>@reif_changes_2013</t>
+          <t>@pilotto_meta-analysis_2020</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1438,20 +1422,17 @@
           <t>Local</t>
         </is>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
       <c r="G25">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1982-2004</t>
+          <t>1980-2016</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Czech Rep.</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1459,26 +1440,21 @@
           <t>Stable</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>"species richness on both the local and national scales did not show any clear temporal trend"</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Reif et al. 2013</t>
+          <t>Pilotto et al., 2020</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>@schipper_contrasting_2016</t>
+          <t>@ram_what_2017</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Div</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1487,19 +1463,19 @@
         </is>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1971-2010</t>
+          <t>1998-2015</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1509,24 +1485,24 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>North American BBS. Metric = Shannon.  The metric is meaned over each road. Area of the road = 50*(pi*400^2) with 50 census points per road and a census radius of 400m</t>
+          <t>Swedish BBS, "The number of observations for each sampling route is the sum of observed pair equivalents of birds at the counting points (5 min counting period at each point) and while moving between counting points". SR for forest species meaned over roads, spatial grain = 8* .4 with road of 8 Km and census radius "no limitations" so assumed 200m.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Schipper et al. 2016</t>
+          <t>Ram et al., 2017</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>@schipper_contrasting_2016</t>
+          <t>@reif_changes_2013</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>fDiv</t>
+          <t>sBetaDiv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1535,41 +1511,46 @@
         </is>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1971-2010</t>
+          <t>1982-2004</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Czech Rep.</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Stable</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Breeding Bird Monitoring Programme. Jaccard similarity index (pairwise comparisions between transects), first increase then decrease. "A census transect consists of 20 points, which are visited twice per breeding season to sample early and late breeders. Observers register all birds seen or heard for 5 min at each census point"</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Schipper et al. 2016</t>
+          <t>Reif et al., 2013</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>@schipper_contrasting_2016</t>
+          <t>@reif_changes_2013</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>fEve</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1578,29 +1559,34 @@
         </is>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1971-2010</t>
+          <t>1982-2004</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Czech Rep.</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>"species richness on both the local and national scales did not show any clear temporal trend"</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Schipper et al. 2016</t>
+          <t>Reif et al., 2013</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1598,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>fR</t>
+          <t>Div</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1641,9 +1627,14 @@
           <t>Increase</t>
         </is>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>North American BBS. Metric = Shannon.  The metric is meaned over each road. Area of the road = 50*(pi*400^2) with 50 census points per road and a census radius of 400m</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Schipper et al. 2016</t>
+          <t>Schipper et al., 2016</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1646,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>fDiv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1681,24 +1672,24 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Schipper et al. 2016</t>
+          <t>Schipper et al., 2016</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>@sorte_changes_2005</t>
+          <t>@schipper_contrasting_2016</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Eve</t>
+          <t>fEve</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1707,14 +1698,14 @@
         </is>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1968-2003</t>
+          <t>1971-2010</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1724,29 +1715,24 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Decrease</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>North American BBS. The metric is meaned over each road. Area of the road = 50*(pi*400\^2) with 50 census point per road and a census radius of 400m.</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>La Sorte and Boecklen 2005</t>
+          <t>Schipper et al., 2016</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>@sorte_changes_2005</t>
+          <t>@schipper_contrasting_2016</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>fR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,14 +1741,14 @@
         </is>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1968-2003</t>
+          <t>1971-2010</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1775,21 +1761,16 @@
           <t>Increase</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>North American BBS. The metric is meaned over each road. Area of the road = 50*(pi*400\^2) with 50 census point per road and a census radius of 400m.</t>
-        </is>
-      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>La Sorte and Boecklen 2005</t>
+          <t>Schipper et al., 2016</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>@van_turnhout_scale-dependent_2007</t>
+          <t>@schipper_contrasting_2016</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1799,23 +1780,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1973-2000</t>
+          <t>1971-2010</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1823,26 +1804,21 @@
           <t>Increase</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Dutch BBS, " two census periods". For each region, the trend is computed using the mean number of species per atlas square</t>
-        </is>
-      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Van Turnhout et al. 2007</t>
+          <t>Schipper et al., 2016</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>@van_turnhout_scale-dependent_2007</t>
+          <t>@sorte_changes_2005</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>Eve</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1851,41 +1827,41 @@
         </is>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1973-2000</t>
+          <t>1968-2003</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Mainly increase of SR but the proportion of negative trend were higher than for the regional scale</t>
+          <t>North American BBS. The metric is meaned over each road. Area of the road = 50*(pi*400\^2) with 50 census point per road and a census radius of 400m.</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Van Turnhout et al. 2007</t>
+          <t>La Sorte and Boecklen, 2005</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>@wretenberg_changes_2010</t>
+          <t>@sorte_changes_2005</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1902,38 +1878,38 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1994-2004</t>
+          <t>1968-2003</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>"All sites were visited six times in 1994 and five times in 2004 during early morning". Looking at the trend through different environmental policies, " local species richness (i.e. at the scale of sites = 3 hectares) decreased significantly probably as a result of an overall reduced abundance of several species. "</t>
+          <t>North American BBS. The metric is meaned over each road. Area of the road = 50*(pi*400\^2) with 50 census point per road and a census radius of 400m.</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Wretenberg et al. 2010</t>
+          <t>La Sorte and Boecklen, 2005</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>@keller_european_2020</t>
+          <t>@van_turnhout_scale-dependent_2007</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1943,23 +1919,23 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="E36">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1972-2017</t>
+          <t>1973-2000</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1969,19 +1945,19 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Change in number of species between EBBA1 (1972-1995) and EBBA2 (2013-2017)</t>
+          <t>Dutch BBS, " two census periods". For each region, the trend is computed using the mean number of species per atlas square</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Keller et al. 2020</t>
+          <t>Van Turnhout et al., 2007</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>@monnet_asynchrony_2014</t>
+          <t>@van_turnhout_scale-dependent_2007</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1995,19 +1971,19 @@
         </is>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G37">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1989-2012</t>
+          <t>1973-2000</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2017,24 +1993,24 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>French BBS, Metrics are modelled at the point and site scales with GAMMs, Beta-diversity at the point scale (no indications of the spatial scale so assuming a 200m radius so spatial scale = pi*0.2^2) and Gamma-diversity at the site scale</t>
+          <t>Mainly increase of SR but the proportion of negative trend were higher than for the regional scale</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Monet et al. 2014</t>
+          <t>Van Turnhout et al., 2007</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>@monnet_asynchrony_2014</t>
+          <t>@wretenberg_changes_2010</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>sBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2046,16 +2022,16 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1989-2012</t>
+          <t>1994-2004</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2063,21 +2039,26 @@
           <t>Decrease</t>
         </is>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>"All sites were visited six times in 1994 and five times in 2004 during early morning". Looking at the trend through different environmental policies, " local species richness (i.e. at the scale of sites = 3 hectares) decreased significantly probably as a result of an overall reduced abundance of several species. "</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Monet et al. 2014</t>
+          <t>Wretenberg et al., 2010</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>@monnet_asynchrony_2014</t>
+          <t>@keller_european_2020</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>fsBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2086,29 +2067,34 @@
         </is>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G39">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1989-2012</t>
+          <t>1972-2017</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Change in number of species between EBBA1 (1972-1995) and EBBA2 (2013-2017)</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Monet et al. 2014</t>
+          <t>Keller et al., 2020</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2106,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>gammaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2149,9 +2135,14 @@
           <t>Increase</t>
         </is>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>French BBS, Metrics are modelled at the point and site scales with GAMMs, Beta-diversity at the point scale (no indications of the spatial scale so assuming a 200m radius so spatial scale = pi*0.2^2) and Gamma-diversity at the site scale</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Monet et al. 2014</t>
+          <t>Monet et al., 2014</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2154,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>fgammaDiv</t>
+          <t>sBetaDiv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2194,19 +2185,19 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Monet et al. 2014</t>
+          <t>Monet et al., 2014</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>@spasov_population_2017</t>
+          <t>@monnet_asynchrony_2014</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>fsBetaDiv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2218,43 +2209,38 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2005-2010</t>
+          <t>1989-2012</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Stable</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Trend of the mean species richness per study plot, "The mean abundance of birds per sample declined over the years (Table 2, Fig. 3) but there was no significant trend in species richness (Table 2)." Unclear temporal grain: "All birds seen or heard while walking along the two line transects were counted"</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Spasov et al. 2017</t>
+          <t>Monet et al., 2014</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>@jarzyna_near_2017</t>
+          <t>@monnet_asynchrony_2014</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>gammaDiv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2266,16 +2252,16 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1969-2010</t>
+          <t>1989-2012</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2283,26 +2269,21 @@
           <t>Increase</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>American BBS, trend at the road scale. For taxonomic diversity trend: "35 years of significant increase and 7 years of significant decrease"</t>
-        </is>
-      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2017</t>
+          <t>Monet et al., 2014</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>@jarzyna_near_2017</t>
+          <t>@monnet_asynchrony_2014</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>fDiv</t>
+          <t>fgammaDiv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2314,38 +2295,38 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1969-2010</t>
+          <t>1989-2012</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Increase</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Functional diversity resulting from summing the length of the branches of a pruned clustering tree</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2017</t>
+          <t>Monet et al., 2014</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>@jarzyna_near_2017</t>
+          <t>@spasov_population_2017</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>sR</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2357,33 +2338,38 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1969-2010</t>
+          <t>2005-2010</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Trend of the mean species richness per study plot, "The mean abundance of birds per sample declined over the years (Table 2, Fig. 3) but there was no significant trend in species richness (Table 2)." Unclear temporal grain: "All birds seen or heard while walking along the two line transects were counted"</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2017</t>
+          <t>Spasov et al., 2017</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>@tingley_cryptic_2013</t>
+          <t>@jarzyna_near_2017</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2396,12 +2382,15 @@
           <t>Local</t>
         </is>
       </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
       <c r="G46">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1911-2009</t>
+          <t>1969-2010</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2411,29 +2400,29 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Spatial grain: 10 counting points per site, with radius of observation assumed to 200m = 10x(pi x 0.2^2). "Modern species richness was significantly less than historical richness (i.e., 95% credible intervals of richness differences nonoverlapping with 0) at 21 sites (27%), while only seven sites (9%) gained a significant number of species. More generally, using mean posterior estimates of richness change, significantly more sites lost species than gained species (57% vs. 43%; χ2 test, P = 0.007)."</t>
+          <t>American BBS, trend at the road scale. For taxonomic diversity trend: "35 years of significant increase and 7 years of significant decrease"</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Tingley and Beissinger 2013</t>
+          <t>Jarzyna and Jetz 2017</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>@la_sorte_disparities_2009</t>
+          <t>@jarzyna_near_2017</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>fDiv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2445,11 +2434,11 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1975-2001</t>
+          <t>1969-2010</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2464,24 +2453,19 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>North American BBS, "our findings indicate a general trend of increasing species richness"</t>
+          <t>Functional diversity resulting from summing the length of the branches of a pruned clustering tree</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>La Sorte et al. 2009</t>
+          <t>Jarzyna and Jetz 2017</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>@la_sorte_geographical_2006</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>sR</t>
+          <t>@jarzyna_near_2017</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2493,16 +2477,16 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1968-2003</t>
+          <t>1969-2010</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>USA, Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2510,21 +2494,16 @@
           <t>Increase</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>North American BBS, "In general, the results indicate that, during the time of the survey, more species expanded their geographical ranges within the study area"</t>
-        </is>
-      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>La Sorte 2006</t>
+          <t>Jarzyna and Jetz 2017</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>@ma_use_2012</t>
+          <t>@tingley_cryptic_2013</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2537,15 +2516,12 @@
           <t>Local</t>
         </is>
       </c>
-      <c r="E49">
-        <v>20</v>
-      </c>
       <c r="G49">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1980-2005</t>
+          <t>1911-2009</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2555,24 +2531,24 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>New York State Breeding Bird Atlas</t>
+          <t>Spatial grain: 10 counting points per site, with radius of observation assumed to 200m = 10x(pi x 0.2^2). "Modern species richness was significantly less than historical richness (i.e., 95% credible intervals of richness differences nonoverlapping with 0) at 21 sites (27%), while only seven sites (9%) gained a significant number of species. More generally, using mean posterior estimates of richness change, significantly more sites lost species than gained species (57% vs. 43%; χ2 test, P = 0.007)."</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Ma et al. 2012</t>
+          <t>Tingley and Beissinger 2013</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>@dornelas_assemblage_2014</t>
+          <t>@la_sorte_disparities_2009</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2585,44 +2561,47 @@
           <t>Local</t>
         </is>
       </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
       <c r="G50">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1960-2000</t>
+          <t>1975-2001</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>For species richness, Fig. S5 shows the slope for birds. For the temporal beta-diversity, trends only for birds is not given so we took the global trend.</t>
+          <t>North American BBS, "our findings indicate a general trend of increasing species richness"</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Dornelas et al. 2014</t>
+          <t>La Sorte et al., 2009</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>@dornelas_assemblage_2014</t>
+          <t>@la_sorte_geographical_2006</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2630,17 +2609,20 @@
           <t>Local</t>
         </is>
       </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
       <c r="G51">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1960-2000</t>
+          <t>1968-2003</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>USA, Canada</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2650,24 +2632,24 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Index used Jaccard similarity index. In this review, temporal beta-diversity is assessed as dissimilarity.</t>
+          <t>North American BBS, "In general, the results indicate that, during the time of the survey, more species expanded their geographical ranges within the study area"</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Dornelas et al. 2014</t>
+          <t>La Sorte, 2006</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>@garcia-navas_temporal_2020</t>
+          <t>@ma_use_2012</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2676,41 +2658,41 @@
         </is>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G52">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1999-2018</t>
+          <t>1980-2005</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Sorensen score</t>
+          <t>New York State Breeding Bird Atlas</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>García-Navas et al. 2020</t>
+          <t>Ma et al., 2012</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>@blowes_geography_2019</t>
+          <t>@dornelas_assemblage_2014</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2723,20 +2705,17 @@
           <t>Local</t>
         </is>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
       <c r="G53">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1980-2019</t>
+          <t>1960-2000</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Polar realm</t>
+          <t>World</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2746,24 +2725,24 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Temporal extent is the median time serie. Tropical realm is represented only by 5 trends so we decided to not take it into account.</t>
+          <t>For species richness, Fig. S5 shows the slope for birds. For the temporal beta-diversity, trends only for birds is not given so we took the global trend.</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Blowes et al. 2019</t>
+          <t>Dornelas et al., 2014</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>@blowes_geography_2019</t>
+          <t>@dornelas_assemblage_2014</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2771,42 +2750,44 @@
           <t>Local</t>
         </is>
       </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
       <c r="G54">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1980-2019</t>
+          <t>1960-2000</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Temperate realm</t>
+          <t>World</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Increase</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Index used Jaccard similarity index. In this review, temporal beta-diversity is assessed as dissimilarity.</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Blowes et al. 2019</t>
+          <t>Dornelas et al., 2014</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>@blowes_geography_2019</t>
+          <t>@garcia-navas_temporal_2020</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>sBetaDiv</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2818,26 +2799,31 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1980-2019</t>
+          <t>1999-2018</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Polar realm</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Sorensen score</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Blowes et al. 2019</t>
+          <t>García-Navas et al., 2020</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2835,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2870,24 +2856,29 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Temperate realm</t>
+          <t>Polar realm</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Temporal extent is the median time serie. Tropical realm is represented only by 5 trends so we decided to not take it into account.</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Blowes et al. 2019</t>
+          <t>Blowes et al., 2019</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>@mcgill_fifteen_2015</t>
+          <t>@blowes_geography_2019</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2897,23 +2888,23 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1985-2005</t>
+          <t>1980-2019</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>USA, Canada</t>
+          <t>Temperate realm</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2921,26 +2912,21 @@
           <t>Stable</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>North American BBS, spatial grain of 5x5°</t>
-        </is>
-      </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>McGill et al. 2015</t>
+          <t>Blowes et al., 2019</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>@mcgill_fifteen_2015</t>
+          <t>@blowes_geography_2019</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2949,41 +2935,41 @@
         </is>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1985-2005</t>
+          <t>1980-2019</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>USA, Canada</t>
+          <t>Polar realm</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>McGill et al. 2015</t>
+          <t>Blowes et al., 2019</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>@petchey_low_2007</t>
+          <t>@blowes_geography_2019</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2992,82 +2978,216 @@
         </is>
       </c>
       <c r="E59">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1968-1991</t>
+          <t>1980-2019</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Temperate realm</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Stable</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Summer (breeding) distribution of the British avifauna, 2298 grid cells of 10*10 Km. "Species richness [...] from [...] (mean ± 1 SD = 80·6 ± 13·1) in Atlas 1 and from [...] (80·0 ± 15·2) in Atlas 2. "</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Petchey et al. 2007</t>
+          <t>Blowes et al., 2019</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>@mcgill_fifteen_2015</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>sR</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Regional</t>
+        </is>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>20</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>1985-2005</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>USA, Canada</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>North American BBS, spatial grain of 5x5°</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>McGill et al., 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>@mcgill_fifteen_2015</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>sR</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>20</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>1985-2005</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>USA, Canada</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>McGill et al., 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>@petchey_low_2007</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>sR</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="E62">
+        <v>20</v>
+      </c>
+      <c r="G62">
+        <v>24</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>1968-1991</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Summer (breeding) distribution of the British avifauna, 2298 grid cells of 10*10 Km. "Species richness [...] from [...] (mean ± 1 SD = 80·6 ± 13·1) in Atlas 1 and from [...] (80·0 ± 15·2) in Atlas 2. "</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Petchey et al., 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>@petchey_low_2007</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>fDiv</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Local</t>
-        </is>
-      </c>
-      <c r="E60">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="E63">
         <v>20</v>
       </c>
-      <c r="G60">
+      <c r="G63">
         <v>24</v>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>1968-1991</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>Stable</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>"FD ranged from [...](mean ± 1 SD = 0·58 ± 0·08) in Atlas 1 and from [...] (mean ± 1 SD = 0·59 ± 0·09) in Atlas 2"</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Petchey et al. 2007</t>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Petchey et al., 2007</t>
         </is>
       </c>
     </row>
